--- a/excel.xlsx
+++ b/excel.xlsx
@@ -2,19 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liceo Compu-Market\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liceo Compu-Market\Desktop\refuerzo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11505" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11505" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="menu" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja2" sheetId="4" r:id="rId3"/>
+    <sheet name="Hoja4" sheetId="5" r:id="rId4"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="125">
-  <si>
-    <t>numero</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="139">
   <si>
     <t>nombre completo</t>
   </si>
@@ -401,13 +400,75 @@
   </si>
   <si>
     <t>Investigador de Mercado</t>
+  </si>
+  <si>
+    <t>misley daneli franco aguilar</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>id:</t>
+  </si>
+  <si>
+    <t>nombre completo:</t>
+  </si>
+  <si>
+    <t>edad:</t>
+  </si>
+  <si>
+    <t>cargo:</t>
+  </si>
+  <si>
+    <t>sueldo:</t>
+  </si>
+  <si>
+    <t>fecha:</t>
+  </si>
+  <si>
+    <t>BUSQUEDA</t>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>USQUEDA</t>
+    </r>
+  </si>
+  <si>
+    <t>ID:</t>
+  </si>
+  <si>
+    <t>Nombre:</t>
+  </si>
+  <si>
+    <t>Edad:</t>
+  </si>
+  <si>
+    <t>Fecha:</t>
+  </si>
+  <si>
+    <t>total del sueldo Mensual</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="173" formatCode="&quot;Q&quot;#,##0.0"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,16 +476,82 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Berlin Sans FB"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -432,20 +559,105 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="173" formatCode="&quot;Q&quot;#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -456,6 +668,156 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="22" fmlaLink="$E$7" max="100" min="1" page="10"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>685800</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5121" name="Spinner 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5121"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>3733800</xdr:colOff>
+          <xdr:row>103</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>762000</xdr:colOff>
+          <xdr:row>107</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3074" name="Button 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3074"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-GT" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Botón 2</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:F102" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:F102"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="id" dataDxfId="4"/>
+    <tableColumn id="2" name="edad"/>
+    <tableColumn id="3" name="nombre completo"/>
+    <tableColumn id="4" name="cargo" dataDxfId="3"/>
+    <tableColumn id="5" name="sueldo" dataDxfId="2">
+      <calculatedColumnFormula>RANDBETWEEN(2700,5000)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="f/a" dataDxfId="1">
+      <calculatedColumnFormula>RANDBETWEEN(DATE(2019,1,10),DATE(2019,5,4))</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -721,10 +1083,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2436,13 +2799,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Hoja2">
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2453,2240 +2816,2466 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F101"/>
+  <sheetPr codeName="Hoja3"/>
+  <dimension ref="C4:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C4:D4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja4"/>
+  <dimension ref="D6:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="34.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D8" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="8" t="str">
+        <f>VLOOKUP(E7,Hoja3!A1:F102,3,)</f>
+        <v>anthony adolfo granados barrios</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="8">
+        <f>VLOOKUP(E7,Hoja3!A1:F102,2,)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="8" t="str">
+        <f>VLOOKUP(E7,Hoja3!A1:F102,4,)</f>
+        <v>gerente</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" s="8">
+        <f ca="1">VLOOKUP(Hoja4!E7,Hoja3!A1:F102,5,)</f>
+        <v>3091</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D12" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="8">
+        <f ca="1">VLOOKUP(E7,Hoja3!A1:F102,6,)</f>
+        <v>43572</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D6:E6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="5121" r:id="rId3" name="Spinner 1">
+              <controlPr defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>685800</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>95250</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja5"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="33.42578125" customWidth="1"/>
     <col min="4" max="4" width="59.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="4">
         <f ca="1">RANDBETWEEN(2700,5000)</f>
-        <v>4920</v>
+        <v>3091</v>
       </c>
       <c r="F2" s="1">
         <f ca="1">RANDBETWEEN(DATE(2019,1,10),DATE(2019,5,4))</f>
-        <v>43533</v>
+        <v>43572</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="4">
         <f t="shared" ref="E3:E66" ca="1" si="0">RANDBETWEEN(2700,5000)</f>
-        <v>2751</v>
+        <v>3985</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F66" ca="1" si="1">RANDBETWEEN(DATE(2019,1,10),DATE(2019,5,4))</f>
-        <v>43514</v>
+        <v>43549</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4">
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ca="1" si="0"/>
-        <v>4587</v>
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>4994</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43550</v>
+        <v>43477</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ca="1" si="0"/>
-        <v>4496</v>
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>4008</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43566</v>
+        <v>43585</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6">
         <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6">
-        <f t="shared" ca="1" si="0"/>
-        <v>3959</v>
+        <v>8</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3790</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43491</v>
+        <v>43495</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7">
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7">
-        <f t="shared" ca="1" si="0"/>
-        <v>3693</v>
+        <v>9</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>4386</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43479</v>
+        <v>43507</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8">
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8">
-        <f t="shared" ca="1" si="0"/>
-        <v>4196</v>
+        <v>10</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>4391</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43482</v>
+        <v>43540</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9">
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9">
-        <f t="shared" ca="1" si="0"/>
-        <v>3001</v>
+        <v>11</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>4470</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43586</v>
+        <v>43546</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10">
         <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10">
-        <f t="shared" ca="1" si="0"/>
-        <v>2723</v>
+        <v>12</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3128</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43517</v>
+        <v>43494</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11">
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11">
-        <f t="shared" ca="1" si="0"/>
-        <v>4959</v>
+        <v>13</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>4459</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43497</v>
+        <v>43584</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12">
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12">
-        <f t="shared" ca="1" si="0"/>
-        <v>3042</v>
+        <v>14</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>4585</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43525</v>
+        <v>43531</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13">
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13">
-        <f t="shared" ca="1" si="0"/>
-        <v>3342</v>
+        <v>15</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>4489</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43506</v>
+        <v>43564</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14">
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14">
-        <f t="shared" ca="1" si="0"/>
-        <v>4351</v>
+        <v>16</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>2753</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43547</v>
+        <v>43536</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15">
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15">
-        <f t="shared" ca="1" si="0"/>
-        <v>3179</v>
+        <v>17</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>4683</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43538</v>
+        <v>43497</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16">
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16">
-        <f t="shared" ca="1" si="0"/>
-        <v>4346</v>
+        <v>18</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>4957</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43497</v>
+        <v>43533</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17">
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17">
-        <f t="shared" ca="1" si="0"/>
-        <v>4648</v>
+        <v>19</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3085</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43562</v>
+        <v>43503</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18">
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" t="s">
-        <v>122</v>
-      </c>
-      <c r="E18">
-        <f t="shared" ca="1" si="0"/>
-        <v>4464</v>
+        <v>20</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>4287</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43538</v>
+        <v>43517</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19">
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19">
-        <f t="shared" ca="1" si="0"/>
-        <v>3276</v>
+        <v>21</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3534</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43570</v>
+        <v>43513</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20">
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20">
-        <f t="shared" ca="1" si="0"/>
-        <v>2959</v>
+        <v>22</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>4617</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43587</v>
+        <v>43580</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21">
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21">
-        <f t="shared" ca="1" si="0"/>
-        <v>4121</v>
+        <v>23</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>2731</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43572</v>
+        <v>43480</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22">
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22">
-        <f t="shared" ca="1" si="0"/>
-        <v>4812</v>
+        <v>24</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>4405</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43569</v>
+        <v>43535</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23">
         <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23">
-        <f t="shared" ca="1" si="0"/>
-        <v>3567</v>
+        <v>25</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3765</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43553</v>
+        <v>43560</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24">
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24">
-        <f t="shared" ca="1" si="0"/>
-        <v>2812</v>
+        <v>26</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3222</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43480</v>
+        <v>43516</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25">
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25">
-        <f t="shared" ca="1" si="0"/>
-        <v>4321</v>
+        <v>27</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3815</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43489</v>
+        <v>43560</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26">
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26">
-        <f t="shared" ca="1" si="0"/>
-        <v>4756</v>
+        <v>28</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>4272</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43488</v>
+        <v>43483</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27">
         <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" t="s">
-        <v>124</v>
-      </c>
-      <c r="E27">
-        <f t="shared" ca="1" si="0"/>
-        <v>4384</v>
+        <v>29</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E27" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3670</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43493</v>
+        <v>43574</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
       <c r="B28">
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" t="s">
-        <v>79</v>
-      </c>
-      <c r="E28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3861</v>
+        <v>30</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3022</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43493</v>
+        <v>43564</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29">
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" t="s">
-        <v>80</v>
-      </c>
-      <c r="E29">
-        <f t="shared" ca="1" si="0"/>
-        <v>2831</v>
+        <v>31</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>2716</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43485</v>
+        <v>43521</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30">
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" t="s">
-        <v>81</v>
-      </c>
-      <c r="E30">
-        <f t="shared" ca="1" si="0"/>
-        <v>3347</v>
+        <v>32</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3403</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43495</v>
+        <v>43582</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31">
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" t="s">
-        <v>82</v>
-      </c>
-      <c r="E31">
-        <f t="shared" ca="1" si="0"/>
-        <v>4127</v>
+        <v>33</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>4383</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43525</v>
+        <v>43526</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32">
         <v>25</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" t="s">
-        <v>83</v>
-      </c>
-      <c r="E32">
-        <f t="shared" ca="1" si="0"/>
-        <v>2820</v>
+        <v>34</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>4241</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43518</v>
+        <v>43539</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
       <c r="B33">
         <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" t="s">
-        <v>84</v>
-      </c>
-      <c r="E33">
-        <f t="shared" ca="1" si="0"/>
-        <v>2771</v>
+        <v>35</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3257</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43492</v>
+        <v>43556</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
       <c r="B34">
         <v>26</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" t="s">
-        <v>85</v>
-      </c>
-      <c r="E34">
-        <f t="shared" ca="1" si="0"/>
-        <v>4542</v>
+        <v>36</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>4603</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43570</v>
+        <v>43544</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
       <c r="B35">
         <v>29</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" t="s">
-        <v>86</v>
-      </c>
-      <c r="E35">
-        <f t="shared" ca="1" si="0"/>
-        <v>2837</v>
+        <v>37</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3236</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43570</v>
+        <v>43575</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
       <c r="B36">
         <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" t="s">
-        <v>87</v>
-      </c>
-      <c r="E36">
-        <f t="shared" ca="1" si="0"/>
-        <v>3734</v>
+        <v>38</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3437</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43487</v>
+        <v>43528</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
       <c r="B37">
         <v>27</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" t="s">
-        <v>88</v>
-      </c>
-      <c r="E37">
-        <f t="shared" ca="1" si="0"/>
-        <v>2947</v>
+        <v>39</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>4672</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43589</v>
+        <v>43485</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
       <c r="B38">
         <v>24</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" t="s">
-        <v>89</v>
-      </c>
-      <c r="E38">
-        <f t="shared" ca="1" si="0"/>
-        <v>4971</v>
+        <v>40</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>4469</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43518</v>
+        <v>43548</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
       <c r="B39">
         <v>21</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" t="s">
-        <v>80</v>
-      </c>
-      <c r="E39">
-        <f t="shared" ca="1" si="0"/>
-        <v>2897</v>
+        <v>41</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>4327</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43563</v>
+        <v>43560</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
       <c r="B40">
         <v>20</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" t="s">
-        <v>81</v>
-      </c>
-      <c r="E40">
-        <f t="shared" ca="1" si="0"/>
-        <v>4386</v>
+        <v>42</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>2890</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43477</v>
+        <v>43550</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
       <c r="B41">
         <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41" t="s">
-        <v>82</v>
-      </c>
-      <c r="E41">
-        <f t="shared" ca="1" si="0"/>
-        <v>3194</v>
+        <v>43</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>4297</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43507</v>
+        <v>43545</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="3">
         <v>41</v>
       </c>
       <c r="B42">
         <v>20</v>
       </c>
       <c r="C42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D42" t="s">
-        <v>83</v>
-      </c>
-      <c r="E42">
-        <f t="shared" ca="1" si="0"/>
-        <v>3445</v>
+        <v>44</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>2806</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43533</v>
+        <v>43530</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="3">
         <v>42</v>
       </c>
       <c r="B43">
         <v>25</v>
       </c>
       <c r="C43" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" t="s">
-        <v>84</v>
-      </c>
-      <c r="E43">
-        <f t="shared" ca="1" si="0"/>
-        <v>3351</v>
+        <v>45</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>2809</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43546</v>
+        <v>43568</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="3">
         <v>43</v>
       </c>
       <c r="B44">
         <v>25</v>
       </c>
       <c r="C44" t="s">
-        <v>47</v>
-      </c>
-      <c r="D44" t="s">
-        <v>85</v>
-      </c>
-      <c r="E44">
-        <f t="shared" ca="1" si="0"/>
-        <v>4951</v>
+        <v>46</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3448</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43587</v>
+        <v>43528</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
       <c r="B45">
         <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>48</v>
-      </c>
-      <c r="D45" t="s">
-        <v>90</v>
-      </c>
-      <c r="E45">
-        <f t="shared" ca="1" si="0"/>
-        <v>3069</v>
+        <v>47</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E45" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>4654</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43551</v>
+        <v>43535</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="3">
         <v>45</v>
       </c>
       <c r="B46">
         <v>24</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
-      </c>
-      <c r="D46" t="s">
-        <v>91</v>
-      </c>
-      <c r="E46">
-        <f t="shared" ca="1" si="0"/>
-        <v>2834</v>
+        <v>48</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>2912</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43576</v>
+        <v>43502</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
       <c r="B47">
         <v>26</v>
       </c>
       <c r="C47" t="s">
-        <v>50</v>
-      </c>
-      <c r="D47" t="s">
-        <v>92</v>
-      </c>
-      <c r="E47">
-        <f t="shared" ca="1" si="0"/>
-        <v>4790</v>
+        <v>49</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>2755</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43574</v>
+        <v>43488</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
       <c r="B48">
         <v>29</v>
       </c>
       <c r="C48" t="s">
-        <v>51</v>
-      </c>
-      <c r="D48" t="s">
-        <v>93</v>
-      </c>
-      <c r="E48">
-        <f t="shared" ca="1" si="0"/>
-        <v>4557</v>
+        <v>50</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>2789</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43481</v>
+        <v>43500</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
       <c r="B49">
         <v>20</v>
       </c>
       <c r="C49" t="s">
-        <v>52</v>
-      </c>
-      <c r="D49" t="s">
-        <v>121</v>
-      </c>
-      <c r="E49">
-        <f t="shared" ca="1" si="0"/>
-        <v>2873</v>
+        <v>51</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E49" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3356</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43507</v>
+        <v>43588</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="3">
         <v>49</v>
       </c>
       <c r="B50">
         <v>20</v>
       </c>
       <c r="C50" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" t="s">
-        <v>120</v>
-      </c>
-      <c r="E50">
-        <f t="shared" ca="1" si="0"/>
-        <v>4362</v>
+        <v>18</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E50" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>2830</v>
       </c>
       <c r="F50" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43516</v>
+        <v>43478</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="3">
         <v>50</v>
       </c>
       <c r="B51">
         <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
-      </c>
-      <c r="D51" t="s">
-        <v>119</v>
-      </c>
-      <c r="E51">
-        <f t="shared" ca="1" si="0"/>
-        <v>4605</v>
+        <v>19</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E51" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>2711</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43582</v>
+        <v>43492</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="3">
         <v>51</v>
       </c>
       <c r="B52">
         <v>19</v>
       </c>
       <c r="C52" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52" t="s">
-        <v>118</v>
-      </c>
-      <c r="E52">
-        <f t="shared" ca="1" si="0"/>
-        <v>2721</v>
+        <v>20</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E52" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>2734</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43502</v>
+        <v>43516</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="A53" s="3">
         <v>52</v>
       </c>
       <c r="B53">
         <v>18</v>
       </c>
       <c r="C53" t="s">
-        <v>22</v>
-      </c>
-      <c r="D53" t="s">
-        <v>117</v>
-      </c>
-      <c r="E53">
-        <f t="shared" ca="1" si="0"/>
-        <v>4753</v>
+        <v>21</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E53" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>4733</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43545</v>
+        <v>43498</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="A54" s="3">
         <v>53</v>
       </c>
       <c r="B54">
         <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>23</v>
-      </c>
-      <c r="D54" t="s">
-        <v>116</v>
-      </c>
-      <c r="E54">
-        <f t="shared" ca="1" si="0"/>
-        <v>3049</v>
+        <v>22</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E54" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>4052</v>
       </c>
       <c r="F54" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43488</v>
+        <v>43500</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="A55" s="3">
         <v>54</v>
       </c>
       <c r="B55">
         <v>18</v>
       </c>
       <c r="C55" t="s">
-        <v>24</v>
-      </c>
-      <c r="D55" t="s">
-        <v>115</v>
-      </c>
-      <c r="E55">
-        <f t="shared" ca="1" si="0"/>
-        <v>4376</v>
+        <v>23</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E55" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3537</v>
       </c>
       <c r="F55" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43559</v>
+        <v>43547</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="A56" s="3">
         <v>55</v>
       </c>
       <c r="B56">
         <v>20</v>
       </c>
       <c r="C56" t="s">
-        <v>25</v>
-      </c>
-      <c r="D56" t="s">
-        <v>114</v>
-      </c>
-      <c r="E56">
-        <f t="shared" ca="1" si="0"/>
-        <v>2797</v>
+        <v>24</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E56" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>2878</v>
       </c>
       <c r="F56" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43513</v>
+        <v>43561</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="A57" s="3">
         <v>56</v>
       </c>
       <c r="B57">
         <v>20</v>
       </c>
       <c r="C57" t="s">
-        <v>26</v>
-      </c>
-      <c r="D57" t="s">
-        <v>113</v>
-      </c>
-      <c r="E57">
-        <f t="shared" ca="1" si="0"/>
-        <v>4567</v>
+        <v>25</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E57" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>4059</v>
       </c>
       <c r="F57" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43524</v>
+        <v>43499</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="A58" s="3">
         <v>57</v>
       </c>
       <c r="B58">
         <v>20</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
-      </c>
-      <c r="D58" t="s">
-        <v>112</v>
-      </c>
-      <c r="E58">
-        <f t="shared" ca="1" si="0"/>
-        <v>4697</v>
+        <v>26</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E58" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>4118</v>
       </c>
       <c r="F58" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43563</v>
+        <v>43550</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="A59" s="3">
         <v>58</v>
       </c>
       <c r="B59">
         <v>17</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
-      </c>
-      <c r="D59" t="s">
-        <v>57</v>
-      </c>
-      <c r="E59">
-        <f t="shared" ca="1" si="0"/>
-        <v>4126</v>
+        <v>27</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E59" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3071</v>
       </c>
       <c r="F59" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43566</v>
+        <v>43571</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="A60" s="3">
         <v>59</v>
       </c>
       <c r="B60">
         <v>28</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
-      </c>
-      <c r="D60" t="s">
-        <v>111</v>
-      </c>
-      <c r="E60">
-        <f t="shared" ca="1" si="0"/>
-        <v>4242</v>
+        <v>28</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E60" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>4306</v>
       </c>
       <c r="F60" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43507</v>
+        <v>43529</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="A61" s="3">
         <v>60</v>
       </c>
       <c r="B61">
         <v>25</v>
       </c>
       <c r="C61" t="s">
-        <v>30</v>
-      </c>
-      <c r="D61" t="s">
-        <v>110</v>
-      </c>
-      <c r="E61">
-        <f t="shared" ca="1" si="0"/>
-        <v>3630</v>
+        <v>29</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E61" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>2821</v>
       </c>
       <c r="F61" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43573</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="A62" s="3">
         <v>61</v>
       </c>
       <c r="B62">
         <v>26</v>
       </c>
       <c r="C62" t="s">
-        <v>31</v>
-      </c>
-      <c r="D62" t="s">
-        <v>109</v>
-      </c>
-      <c r="E62">
-        <f t="shared" ca="1" si="0"/>
-        <v>3464</v>
+        <v>30</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E62" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>4780</v>
       </c>
       <c r="F62" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43513</v>
+        <v>43576</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="A63" s="3">
         <v>62</v>
       </c>
       <c r="B63">
         <v>29</v>
       </c>
       <c r="C63" t="s">
-        <v>32</v>
-      </c>
-      <c r="D63" t="s">
-        <v>108</v>
-      </c>
-      <c r="E63">
-        <f t="shared" ca="1" si="0"/>
-        <v>3788</v>
+        <v>31</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E63" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3964</v>
       </c>
       <c r="F63" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43581</v>
+        <v>43520</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="A64" s="3">
         <v>63</v>
       </c>
       <c r="B64">
         <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>33</v>
-      </c>
-      <c r="D64" t="s">
-        <v>107</v>
-      </c>
-      <c r="E64">
-        <f t="shared" ca="1" si="0"/>
-        <v>2956</v>
+        <v>32</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E64" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3960</v>
       </c>
       <c r="F64" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43552</v>
+        <v>43564</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="A65" s="3">
         <v>64</v>
       </c>
       <c r="B65">
         <v>23</v>
       </c>
       <c r="C65" t="s">
-        <v>34</v>
-      </c>
-      <c r="D65" t="s">
-        <v>99</v>
-      </c>
-      <c r="E65">
-        <f t="shared" ca="1" si="0"/>
-        <v>3747</v>
+        <v>33</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E65" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3545</v>
       </c>
       <c r="F65" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43495</v>
+        <v>43511</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="A66" s="3">
         <v>65</v>
       </c>
       <c r="B66">
         <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>35</v>
-      </c>
-      <c r="D66" t="s">
-        <v>101</v>
-      </c>
-      <c r="E66">
-        <f t="shared" ca="1" si="0"/>
-        <v>2835</v>
+        <v>34</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E66" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3036</v>
       </c>
       <c r="F66" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43588</v>
+        <v>43587</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="A67" s="3">
         <v>66</v>
       </c>
       <c r="B67">
         <v>26</v>
       </c>
       <c r="C67" t="s">
-        <v>5</v>
-      </c>
-      <c r="D67" t="s">
-        <v>100</v>
-      </c>
-      <c r="E67">
+        <v>4</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E67" s="4">
         <f t="shared" ref="E67:E101" ca="1" si="2">RANDBETWEEN(2700,5000)</f>
-        <v>3408</v>
+        <v>3848</v>
       </c>
       <c r="F67" s="1">
         <f t="shared" ref="F67:F101" ca="1" si="3">RANDBETWEEN(DATE(2019,1,10),DATE(2019,5,4))</f>
-        <v>43476</v>
+        <v>43525</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="A68" s="3">
         <v>67</v>
       </c>
       <c r="B68">
         <v>26</v>
       </c>
       <c r="C68" t="s">
-        <v>6</v>
-      </c>
-      <c r="D68" t="s">
-        <v>98</v>
-      </c>
-      <c r="E68">
+        <v>5</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E68" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>3076</v>
+        <v>2947</v>
       </c>
       <c r="F68" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43500</v>
+        <v>43550</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="A69" s="3">
         <v>68</v>
       </c>
       <c r="B69">
         <v>26</v>
       </c>
       <c r="C69" t="s">
-        <v>7</v>
-      </c>
-      <c r="D69" t="s">
-        <v>97</v>
-      </c>
-      <c r="E69">
+        <v>6</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E69" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>3604</v>
+        <v>3086</v>
       </c>
       <c r="F69" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43564</v>
+        <v>43509</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="A70" s="3">
         <v>69</v>
       </c>
       <c r="B70">
         <v>25</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70" t="s">
-        <v>96</v>
-      </c>
-      <c r="E70">
+        <v>7</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E70" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>2843</v>
+        <v>4322</v>
       </c>
       <c r="F70" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43549</v>
+        <v>43523</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="A71" s="3">
         <v>70</v>
       </c>
       <c r="B71">
         <v>28</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" t="s">
-        <v>123</v>
-      </c>
-      <c r="E71">
+        <v>8</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E71" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>2870</v>
+        <v>3055</v>
       </c>
       <c r="F71" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43482</v>
+        <v>43484</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="A72" s="3">
         <v>71</v>
       </c>
       <c r="B72">
         <v>29</v>
       </c>
       <c r="C72" t="s">
-        <v>10</v>
-      </c>
-      <c r="D72" t="s">
-        <v>95</v>
-      </c>
-      <c r="E72">
+        <v>124</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E72" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>3000</v>
+        <v>4252</v>
       </c>
       <c r="F72" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43526</v>
+        <v>43513</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="A73" s="3">
         <v>72</v>
       </c>
       <c r="B73">
         <v>30</v>
       </c>
       <c r="C73" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s">
-        <v>103</v>
-      </c>
-      <c r="E73">
+        <v>10</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E73" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>3324</v>
+        <v>2749</v>
       </c>
       <c r="F73" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43521</v>
+        <v>43564</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="A74" s="3">
         <v>73</v>
       </c>
       <c r="B74">
         <v>32</v>
       </c>
       <c r="C74" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74" t="s">
-        <v>102</v>
-      </c>
-      <c r="E74">
+        <v>11</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E74" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>3431</v>
+        <v>4423</v>
       </c>
       <c r="F74" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43503</v>
+        <v>43559</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="A75" s="3">
         <v>74</v>
       </c>
       <c r="B75">
         <v>25</v>
       </c>
       <c r="C75" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75" t="s">
-        <v>104</v>
-      </c>
-      <c r="E75">
+        <v>12</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E75" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>2775</v>
+        <v>3740</v>
       </c>
       <c r="F75" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43584</v>
+        <v>43588</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="A76" s="3">
         <v>75</v>
       </c>
       <c r="B76">
         <v>28</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
-      </c>
-      <c r="D76" t="s">
-        <v>105</v>
-      </c>
-      <c r="E76">
+        <v>13</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E76" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>3621</v>
+        <v>3174</v>
       </c>
       <c r="F76" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43484</v>
+        <v>43502</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="A77" s="3">
         <v>76</v>
       </c>
       <c r="B77">
         <v>26</v>
       </c>
       <c r="C77" t="s">
-        <v>15</v>
-      </c>
-      <c r="D77" t="s">
-        <v>106</v>
-      </c>
-      <c r="E77">
+        <v>14</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E77" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>3176</v>
+        <v>2985</v>
       </c>
       <c r="F77" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43546</v>
+        <v>43541</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="A78" s="3">
         <v>77</v>
       </c>
       <c r="B78">
         <v>29</v>
       </c>
       <c r="C78" t="s">
-        <v>16</v>
-      </c>
-      <c r="D78" t="s">
-        <v>53</v>
-      </c>
-      <c r="E78">
+        <v>15</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E78" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>2906</v>
+        <v>2708</v>
       </c>
       <c r="F78" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43494</v>
+        <v>43537</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="A79" s="3">
         <v>78</v>
       </c>
       <c r="B79">
         <v>20</v>
       </c>
       <c r="C79" t="s">
-        <v>17</v>
-      </c>
-      <c r="D79" t="s">
-        <v>58</v>
-      </c>
-      <c r="E79">
+        <v>16</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E79" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>2790</v>
+        <v>3062</v>
       </c>
       <c r="F79" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43493</v>
+        <v>43488</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="A80" s="3">
         <v>79</v>
       </c>
       <c r="B80">
         <v>20</v>
       </c>
       <c r="C80" t="s">
-        <v>18</v>
-      </c>
-      <c r="D80" t="s">
-        <v>59</v>
-      </c>
-      <c r="E80">
+        <v>17</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E80" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>4035</v>
+        <v>4482</v>
       </c>
       <c r="F80" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43538</v>
+        <v>43540</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="A81" s="3">
         <v>80</v>
       </c>
       <c r="B81">
         <v>15</v>
       </c>
       <c r="C81" t="s">
-        <v>22</v>
-      </c>
-      <c r="D81" t="s">
-        <v>60</v>
-      </c>
-      <c r="E81">
+        <v>21</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E81" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>4705</v>
+        <v>4868</v>
       </c>
       <c r="F81" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43518</v>
+        <v>43479</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="A82" s="3">
         <v>81</v>
       </c>
       <c r="B82">
         <v>15</v>
       </c>
       <c r="C82" t="s">
-        <v>23</v>
-      </c>
-      <c r="D82" t="s">
-        <v>61</v>
-      </c>
-      <c r="E82">
+        <v>22</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E82" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>4086</v>
+        <v>4495</v>
       </c>
       <c r="F82" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43490</v>
+        <v>43512</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="A83" s="3">
         <v>82</v>
       </c>
       <c r="B83">
         <v>18</v>
       </c>
       <c r="C83" t="s">
-        <v>24</v>
-      </c>
-      <c r="D83" t="s">
-        <v>62</v>
-      </c>
-      <c r="E83">
+        <v>23</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E83" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>3337</v>
+        <v>3860</v>
       </c>
       <c r="F83" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43555</v>
+        <v>43527</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="A84" s="3">
         <v>83</v>
       </c>
       <c r="B84">
         <v>19</v>
       </c>
       <c r="C84" t="s">
-        <v>25</v>
-      </c>
-      <c r="D84" t="s">
-        <v>63</v>
-      </c>
-      <c r="E84">
+        <v>24</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E84" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>2998</v>
+        <v>3929</v>
       </c>
       <c r="F84" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43493</v>
+        <v>43587</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="A85" s="3">
         <v>84</v>
       </c>
       <c r="B85">
         <v>20</v>
       </c>
       <c r="C85" t="s">
-        <v>26</v>
-      </c>
-      <c r="D85" t="s">
-        <v>64</v>
-      </c>
-      <c r="E85">
+        <v>25</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E85" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>4640</v>
+        <v>3139</v>
       </c>
       <c r="F85" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43476</v>
+        <v>43500</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="A86" s="3">
         <v>85</v>
       </c>
       <c r="B86">
         <v>13</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
-      </c>
-      <c r="D86" t="s">
-        <v>66</v>
-      </c>
-      <c r="E86">
+        <v>26</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E86" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>3332</v>
+        <v>3506</v>
       </c>
       <c r="F86" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43481</v>
+        <v>43523</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="A87" s="3">
         <v>86</v>
       </c>
       <c r="B87">
         <v>27</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
-      </c>
-      <c r="D87" t="s">
-        <v>65</v>
-      </c>
-      <c r="E87">
+        <v>27</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E87" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>3620</v>
+        <v>4206</v>
       </c>
       <c r="F87" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43525</v>
+        <v>43547</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="A88" s="3">
         <v>87</v>
       </c>
       <c r="B88">
         <v>25</v>
       </c>
       <c r="C88" t="s">
-        <v>29</v>
-      </c>
-      <c r="D88" t="s">
-        <v>67</v>
-      </c>
-      <c r="E88">
+        <v>28</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E88" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>3830</v>
+        <v>2959</v>
       </c>
       <c r="F88" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43542</v>
+        <v>43482</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="A89" s="3">
         <v>88</v>
       </c>
       <c r="B89">
         <v>25</v>
       </c>
       <c r="C89" t="s">
-        <v>30</v>
-      </c>
-      <c r="D89" t="s">
-        <v>68</v>
-      </c>
-      <c r="E89">
+        <v>29</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E89" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>3580</v>
+        <v>3289</v>
       </c>
       <c r="F89" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43500</v>
+        <v>43484</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="A90" s="3">
         <v>89</v>
       </c>
       <c r="B90">
         <v>25</v>
       </c>
       <c r="C90" t="s">
-        <v>31</v>
-      </c>
-      <c r="D90" t="s">
-        <v>69</v>
-      </c>
-      <c r="E90">
+        <v>30</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E90" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>4741</v>
+        <v>3140</v>
       </c>
       <c r="F90" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43569</v>
+        <v>43480</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="A91" s="3">
         <v>90</v>
       </c>
       <c r="B91">
         <v>20</v>
       </c>
       <c r="C91" t="s">
-        <v>32</v>
-      </c>
-      <c r="D91" t="s">
-        <v>70</v>
-      </c>
-      <c r="E91">
+        <v>31</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>4797</v>
+        <v>4811</v>
       </c>
       <c r="F91" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43506</v>
+        <v>43516</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="A92" s="3">
         <v>91</v>
       </c>
       <c r="B92">
         <v>20</v>
       </c>
       <c r="C92" t="s">
-        <v>33</v>
-      </c>
-      <c r="D92" t="s">
-        <v>71</v>
-      </c>
-      <c r="E92">
+        <v>32</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E92" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>4722</v>
+        <v>3201</v>
       </c>
       <c r="F92" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43495</v>
+        <v>43558</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="A93" s="3">
         <v>92</v>
       </c>
       <c r="B93">
         <v>30</v>
       </c>
       <c r="C93" t="s">
-        <v>34</v>
-      </c>
-      <c r="D93" t="s">
-        <v>72</v>
-      </c>
-      <c r="E93">
+        <v>33</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E93" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>4682</v>
+        <v>4831</v>
       </c>
       <c r="F93" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43557</v>
+        <v>43512</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="A94" s="3">
         <v>93</v>
       </c>
       <c r="B94">
         <v>28</v>
       </c>
       <c r="C94" t="s">
-        <v>44</v>
-      </c>
-      <c r="D94" t="s">
-        <v>73</v>
-      </c>
-      <c r="E94">
+        <v>43</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E94" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>4509</v>
+        <v>3143</v>
       </c>
       <c r="F94" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43587</v>
+        <v>43550</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="A95" s="3">
         <v>94</v>
       </c>
       <c r="B95">
         <v>28</v>
       </c>
       <c r="C95" t="s">
-        <v>45</v>
-      </c>
-      <c r="D95" t="s">
-        <v>74</v>
-      </c>
-      <c r="E95">
+        <v>44</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E95" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>3636</v>
+        <v>3814</v>
       </c>
       <c r="F95" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43496</v>
+        <v>43574</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="A96" s="3">
         <v>95</v>
       </c>
       <c r="B96">
         <v>25</v>
       </c>
       <c r="C96" t="s">
-        <v>46</v>
-      </c>
-      <c r="D96" t="s">
-        <v>75</v>
-      </c>
-      <c r="E96">
+        <v>45</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E96" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>3637</v>
+        <v>4603</v>
       </c>
       <c r="F96" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43538</v>
+        <v>43516</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="A97" s="3">
         <v>96</v>
       </c>
       <c r="B97">
         <v>26</v>
       </c>
       <c r="C97" t="s">
-        <v>47</v>
-      </c>
-      <c r="D97" t="s">
-        <v>68</v>
-      </c>
-      <c r="E97">
+        <v>46</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E97" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>4642</v>
+        <v>3187</v>
       </c>
       <c r="F97" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43589</v>
+        <v>43574</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="A98" s="3">
         <v>97</v>
       </c>
       <c r="B98">
         <v>28</v>
       </c>
       <c r="C98" t="s">
-        <v>48</v>
-      </c>
-      <c r="D98" t="s">
-        <v>69</v>
-      </c>
-      <c r="E98">
+        <v>47</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E98" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>3439</v>
+        <v>4748</v>
       </c>
       <c r="F98" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43506</v>
+        <v>43535</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="A99" s="3">
         <v>98</v>
       </c>
       <c r="B99">
         <v>27</v>
       </c>
       <c r="C99" t="s">
-        <v>49</v>
-      </c>
-      <c r="D99" t="s">
-        <v>122</v>
-      </c>
-      <c r="E99">
+        <v>48</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E99" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>4377</v>
+        <v>2901</v>
       </c>
       <c r="F99" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43566</v>
+        <v>43519</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="A100" s="3">
         <v>99</v>
       </c>
       <c r="B100">
         <v>30</v>
       </c>
       <c r="C100" t="s">
-        <v>50</v>
-      </c>
-      <c r="D100" t="s">
-        <v>71</v>
-      </c>
-      <c r="E100">
+        <v>49</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E100" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>4155</v>
+        <v>4900</v>
       </c>
       <c r="F100" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43489</v>
+        <v>43568</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="A101" s="3">
         <v>100</v>
       </c>
       <c r="B101">
         <v>25</v>
       </c>
       <c r="C101" t="s">
-        <v>51</v>
-      </c>
-      <c r="D101" t="s">
-        <v>72</v>
-      </c>
-      <c r="E101">
+        <v>50</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E101" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>4355</v>
+        <v>3888</v>
       </c>
       <c r="F101" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43547</v>
-      </c>
+        <v>43511</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="3"/>
+      <c r="D102" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E102" s="4">
+        <f ca="1">SUM(E2:E101)</f>
+        <v>373440</v>
+      </c>
+      <c r="F102" s="1"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D103" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3074" r:id="rId4" name="Button 2">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!Botón2_Haga_clic_en">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>3733800</xdr:colOff>
+                    <xdr:row>103</xdr:row>
+                    <xdr:rowOff>142875</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>762000</xdr:colOff>
+                    <xdr:row>107</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <tableParts count="1">
+    <tablePart r:id="rId5"/>
+  </tableParts>
 </worksheet>
 </file>